--- a/Ch03_動的最適化/価値反復_非同期型_vx01_テンプレート.xlsx
+++ b/Ch03_動的最適化/価値反復_非同期型_vx01_テンプレート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE946A9B-0511-4C77-AFEB-F69CCD6D5A72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE035409-2937-43CA-9099-3C9073904F76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
